--- a/Сервисы Ди.xlsx
+++ b/Сервисы Ди.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="739">
   <si>
     <t>Сервис</t>
   </si>
@@ -2365,6 +2365,18 @@
   </si>
   <si>
     <t>В отличае от подписки высылает только новые посты (новости) по указанному каналу</t>
+  </si>
+  <si>
+    <t>site:</t>
+  </si>
+  <si>
+    <t>Сайт</t>
+  </si>
+  <si>
+    <t>Информация по сайтам и поиск сайтов (Яндекс.Каталог)</t>
+  </si>
+  <si>
+    <t>Яндекс.Каталог</t>
   </si>
 </sst>
 </file>
@@ -3011,11 +3023,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J102"/>
+  <dimension ref="A1:J103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F72" sqref="F72"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5078,269 +5090,263 @@
       <c r="B79" s="25" t="s">
         <v>720</v>
       </c>
-      <c r="C79" s="40" t="s">
+      <c r="C79" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="D79" s="10" t="s">
+      <c r="D79" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="E79" s="25" t="s">
+      <c r="E79" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="F79" s="10" t="s">
+      <c r="F79" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="G79" s="12"/>
-      <c r="H79" s="10" t="s">
+      <c r="G79" s="11"/>
+      <c r="H79" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I79" s="10" t="s">
+      <c r="I79" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="J79" s="10" t="s">
+      <c r="J79" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="10"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="13" t="s">
+        <v>735</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>738</v>
+      </c>
+      <c r="E80" s="24" t="s">
+        <v>736</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="G80" s="11"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B80" s="15" t="s">
+      <c r="B81" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="C80" s="41"/>
-      <c r="D80" s="3" t="s">
+      <c r="C81" s="41"/>
+      <c r="D81" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E80" s="15" t="s">
+      <c r="E81" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="F80" s="3" t="s">
+      <c r="F81" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G80" s="6"/>
-      <c r="H80" s="3" t="s">
+      <c r="G81" s="6"/>
+      <c r="H81" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3" t="s">
+      <c r="I81" s="3"/>
+      <c r="J81" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="75">
-      <c r="A81" s="9" t="s">
+    <row r="82" spans="1:10" ht="75">
+      <c r="A82" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B81" s="24" t="s">
+      <c r="B82" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="C82" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="D82" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="E81" s="24" t="s">
+      <c r="E82" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="F81" s="9" t="s">
+      <c r="F82" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="G81" s="11"/>
-      <c r="H81" s="9" t="s">
+      <c r="G82" s="11"/>
+      <c r="H82" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I81" s="9" t="s">
+      <c r="I82" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="J81" s="9" t="s">
+      <c r="J82" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
-      <c r="A82" s="3" t="s">
+    <row r="83" spans="1:10">
+      <c r="A83" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B82" s="15" t="s">
+      <c r="B83" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="C82" s="41"/>
-      <c r="D82" s="3" t="s">
+      <c r="C83" s="41"/>
+      <c r="D83" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="E82" s="15" t="s">
+      <c r="E83" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="F82" s="3" t="s">
+      <c r="F83" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="G82" s="6"/>
-      <c r="H82" s="3" t="s">
+      <c r="G83" s="6"/>
+      <c r="H83" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3" t="s">
+      <c r="I83" s="3"/>
+      <c r="J83" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="45">
-      <c r="A83" s="10" t="s">
+    <row r="84" spans="1:10" ht="45">
+      <c r="A84" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B83" s="25" t="s">
+      <c r="B84" s="25" t="s">
         <v>328</v>
       </c>
-      <c r="C83" s="40"/>
-      <c r="D83" s="10" t="s">
+      <c r="C84" s="40"/>
+      <c r="D84" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="E83" s="25" t="s">
+      <c r="E84" s="25" t="s">
         <v>329</v>
       </c>
-      <c r="F83" s="10" t="s">
+      <c r="F84" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="G83" s="12"/>
-      <c r="H83" s="10" t="s">
+      <c r="G84" s="12"/>
+      <c r="H84" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I83" s="10" t="s">
+      <c r="I84" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="J83" s="10" t="s">
+      <c r="J84" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="75">
-      <c r="A84" s="9" t="s">
+    <row r="85" spans="1:10" ht="75">
+      <c r="A85" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B84" s="24" t="s">
+      <c r="B85" s="24" t="s">
         <v>323</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C85" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="D84" s="9" t="s">
+      <c r="D85" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="E84" s="24" t="s">
+      <c r="E85" s="24" t="s">
         <v>325</v>
       </c>
-      <c r="F84" s="9" t="s">
+      <c r="F85" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="G84" s="11"/>
-      <c r="H84" s="9" t="s">
+      <c r="G85" s="11"/>
+      <c r="H85" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I84" s="9" t="s">
+      <c r="I85" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="J84" s="9" t="s">
+      <c r="J85" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="45">
-      <c r="A85" s="3" t="s">
+    <row r="86" spans="1:10" ht="45">
+      <c r="A86" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B85" s="15" t="s">
+      <c r="B86" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="C85" s="41"/>
-      <c r="D85" s="3" t="s">
+      <c r="C86" s="41"/>
+      <c r="D86" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="E85" s="15" t="s">
+      <c r="E86" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="F85" s="3" t="s">
+      <c r="F86" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="G85" s="6"/>
-      <c r="H85" s="3" t="s">
+      <c r="G86" s="6"/>
+      <c r="H86" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I85" s="3" t="s">
+      <c r="I86" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="J85" s="3" t="s">
+      <c r="J86" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="30">
-      <c r="A86" s="10" t="s">
+    <row r="87" spans="1:10" ht="30">
+      <c r="A87" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B86" s="25"/>
-      <c r="C86" s="40"/>
-      <c r="D86" s="10" t="s">
+      <c r="B87" s="25"/>
+      <c r="C87" s="40"/>
+      <c r="D87" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="E86" s="25" t="s">
+      <c r="E87" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="F86" s="10" t="s">
+      <c r="F87" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="G86" s="10" t="s">
+      <c r="G87" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="H86" s="10"/>
-      <c r="I86" s="10" t="s">
+      <c r="H87" s="10"/>
+      <c r="I87" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="J86" s="10" t="s">
+      <c r="J87" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="60">
-      <c r="A87" s="3"/>
-      <c r="B87" s="15"/>
-      <c r="C87" s="41"/>
-      <c r="D87" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="E87" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="G87" s="6"/>
-      <c r="H87" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I87" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="J87" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="45">
-      <c r="A88" s="3" t="s">
-        <v>235</v>
-      </c>
+    <row r="88" spans="1:10" ht="60">
+      <c r="A88" s="3"/>
       <c r="B88" s="15"/>
       <c r="C88" s="41"/>
       <c r="D88" s="3" t="s">
-        <v>177</v>
+        <v>366</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>150</v>
+        <v>367</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>179</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="G88" s="6"/>
       <c r="H88" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I88" s="3"/>
+      <c r="I88" s="3" t="s">
+        <v>269</v>
+      </c>
       <c r="J88" s="3" t="s">
         <v>28</v>
       </c>
@@ -5352,13 +5358,13 @@
       <c r="B89" s="15"/>
       <c r="C89" s="41"/>
       <c r="D89" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>179</v>
@@ -5378,94 +5384,90 @@
       <c r="B90" s="15"/>
       <c r="C90" s="41"/>
       <c r="D90" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E90" s="15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>179</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I90" s="3"/>
       <c r="J90" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="23.25" customHeight="1">
-      <c r="A91" s="44" t="s">
+    <row r="91" spans="1:10" ht="45">
+      <c r="A91" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B91" s="15"/>
+      <c r="C91" s="41"/>
+      <c r="D91" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E91" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="23.25" customHeight="1">
+      <c r="A92" s="44" t="s">
         <v>309</v>
       </c>
-      <c r="B91" s="45"/>
-      <c r="C91" s="45"/>
-      <c r="D91" s="45"/>
-      <c r="E91" s="45"/>
-      <c r="F91" s="45"/>
-      <c r="G91" s="45"/>
-      <c r="H91" s="45"/>
-      <c r="I91" s="45"/>
-      <c r="J91" s="46"/>
-    </row>
-    <row r="92" spans="1:10" ht="45">
-      <c r="A92" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B92" s="24" t="s">
-        <v>342</v>
-      </c>
-      <c r="C92" s="13" t="s">
-        <v>414</v>
-      </c>
-      <c r="D92" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="E92" s="24" t="s">
-        <v>343</v>
-      </c>
-      <c r="F92" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="G92" s="9"/>
-      <c r="H92" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I92" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="J92" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="B92" s="45"/>
+      <c r="C92" s="45"/>
+      <c r="D92" s="45"/>
+      <c r="E92" s="45"/>
+      <c r="F92" s="45"/>
+      <c r="G92" s="45"/>
+      <c r="H92" s="45"/>
+      <c r="I92" s="45"/>
+      <c r="J92" s="46"/>
     </row>
     <row r="93" spans="1:10" ht="45">
       <c r="A93" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B93" s="24" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E93" s="24" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="G93" s="9"/>
       <c r="H93" s="9" t="s">
         <v>29</v>
       </c>
       <c r="I93" s="9" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="J93" s="9" t="s">
         <v>28</v>
@@ -5476,79 +5478,79 @@
         <v>16</v>
       </c>
       <c r="B94" s="24" t="s">
-        <v>423</v>
+        <v>345</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>310</v>
+        <v>415</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>350</v>
       </c>
       <c r="E94" s="24" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G94" s="9"/>
       <c r="H94" s="9" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J94" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="30">
+    <row r="95" spans="1:10" ht="45">
       <c r="A95" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B95" s="24" t="s">
-        <v>721</v>
+        <v>423</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>269</v>
+        <v>416</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="E95" s="24" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>334</v>
+        <v>358</v>
       </c>
       <c r="G95" s="9"/>
       <c r="H95" s="9" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="I95" s="9" t="s">
-        <v>269</v>
+        <v>357</v>
       </c>
       <c r="J95" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="45">
+    <row r="96" spans="1:10" ht="30">
       <c r="A96" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B96" s="24" t="s">
-        <v>335</v>
+        <v>721</v>
       </c>
       <c r="C96" s="13" t="s">
         <v>269</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E96" s="24" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G96" s="9"/>
       <c r="H96" s="9" t="s">
@@ -5561,24 +5563,24 @@
         <v>28</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="30">
+    <row r="97" spans="1:10" ht="45">
       <c r="A97" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B97" s="24" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C97" s="13" t="s">
         <v>269</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E97" s="24" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G97" s="9"/>
       <c r="H97" s="9" t="s">
@@ -5591,73 +5593,77 @@
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="75">
-      <c r="A98" s="10" t="s">
+    <row r="98" spans="1:10" ht="30">
+      <c r="A98" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B98" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="E98" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I98" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="J98" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="75">
+      <c r="A99" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B98" s="25" t="s">
+      <c r="B99" s="25" t="s">
         <v>352</v>
       </c>
-      <c r="C98" s="40"/>
-      <c r="D98" s="10" t="s">
+      <c r="C99" s="40"/>
+      <c r="D99" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E98" s="25" t="s">
+      <c r="E99" s="25" t="s">
         <v>353</v>
       </c>
-      <c r="F98" s="10" t="s">
+      <c r="F99" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="G98" s="10"/>
-      <c r="H98" s="10" t="s">
+      <c r="G99" s="10"/>
+      <c r="H99" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I98" s="10" t="s">
+      <c r="I99" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="J98" s="10" t="s">
+      <c r="J99" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="23.25" customHeight="1">
-      <c r="A99" s="44" t="s">
+    <row r="100" spans="1:10" ht="23.25" customHeight="1">
+      <c r="A100" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="B99" s="45"/>
-      <c r="C99" s="45"/>
-      <c r="D99" s="45"/>
-      <c r="E99" s="45"/>
-      <c r="F99" s="45"/>
-      <c r="G99" s="45"/>
-      <c r="H99" s="45"/>
-      <c r="I99" s="45"/>
-      <c r="J99" s="46"/>
-    </row>
-    <row r="100" spans="1:10">
-      <c r="A100" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B100" s="24"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E100" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="F100" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G100" s="9"/>
-      <c r="H100" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="I100" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="J100" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="B100" s="45"/>
+      <c r="C100" s="45"/>
+      <c r="D100" s="45"/>
+      <c r="E100" s="45"/>
+      <c r="F100" s="45"/>
+      <c r="G100" s="45"/>
+      <c r="H100" s="45"/>
+      <c r="I100" s="45"/>
+      <c r="J100" s="46"/>
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="9" t="s">
@@ -5666,17 +5672,17 @@
       <c r="B101" s="24"/>
       <c r="C101" s="13"/>
       <c r="D101" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E101" s="24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>234</v>
+        <v>123</v>
       </c>
       <c r="G101" s="9"/>
       <c r="H101" s="9" t="s">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="I101" s="9" t="s">
         <v>269</v>
@@ -5692,17 +5698,17 @@
       <c r="B102" s="24"/>
       <c r="C102" s="13"/>
       <c r="D102" s="9" t="s">
-        <v>300</v>
+        <v>125</v>
       </c>
       <c r="E102" s="24" t="s">
-        <v>301</v>
+        <v>161</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>302</v>
+        <v>234</v>
       </c>
       <c r="G102" s="9"/>
       <c r="H102" s="9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I102" s="9" t="s">
         <v>269</v>
@@ -5711,9 +5717,35 @@
         <v>28</v>
       </c>
     </row>
+    <row r="103" spans="1:10">
+      <c r="A103" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B103" s="24"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="E103" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I103" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="J103" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A99:J99"/>
+    <mergeCell ref="A100:J100"/>
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="A49:J49"/>
     <mergeCell ref="A11:J11"/>
@@ -5726,7 +5758,7 @@
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A68:J68"/>
     <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A91:J91"/>
+    <mergeCell ref="A92:J92"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G13" r:id="rId1"/>

--- a/Сервисы Ди.xlsx
+++ b/Сервисы Ди.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="754">
   <si>
     <t>Сервис</t>
   </si>
@@ -668,9 +668,6 @@
   <si>
     <t>#LOC!
 #address:</t>
-  </si>
-  <si>
-    <t>#calc:</t>
   </si>
   <si>
     <t>https://developer.accuweather.com/</t>
@@ -981,9 +978,6 @@
     <t>Познакомимся? - Да/Нет [пользователь] -(запуск сервиса знакомства)</t>
   </si>
   <si>
-    <t>Внутренние сервисы и функции</t>
-  </si>
-  <si>
     <t>Fixer</t>
   </si>
   <si>
@@ -2378,12 +2372,63 @@
   <si>
     <t>Яндекс.Каталог</t>
   </si>
+  <si>
+    <t>BugLog</t>
+  </si>
+  <si>
+    <t>#buglog</t>
+  </si>
+  <si>
+    <t>Добавление ошибки в базу ошибок</t>
+  </si>
+  <si>
+    <t>База ошибок</t>
+  </si>
+  <si>
+    <t>#buglog: Ошибка в расчётах</t>
+  </si>
+  <si>
+    <t>#autotest</t>
+  </si>
+  <si>
+    <t>Autotest</t>
+  </si>
+  <si>
+    <t>Автотестирование</t>
+  </si>
+  <si>
+    <t>Прогонка автотестов</t>
+  </si>
+  <si>
+    <t>#autotest:</t>
+  </si>
+  <si>
+    <t>#site:</t>
+  </si>
+  <si>
+    <t>#calculator:</t>
+  </si>
+  <si>
+    <t>Внутренние функции</t>
+  </si>
+  <si>
+    <t>Внутренние сервисы</t>
+  </si>
+  <si>
+    <t>SQLite</t>
+  </si>
+  <si>
+    <t>База данных</t>
+  </si>
+  <si>
+    <t>Основные инструменты по работе с СУБД</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2813,6 +2858,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2847,6 +2893,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -3022,15 +3069,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J103"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E79" sqref="E79"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="26" customWidth="1"/>
@@ -3045,7 +3092,7 @@
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="17" customFormat="1" ht="30">
+    <row r="1" spans="1:10" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>126</v>
       </c>
@@ -3053,7 +3100,7 @@
         <v>209</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>0</v>
@@ -3071,13 +3118,13 @@
         <v>7</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J1" s="18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="23.25">
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
         <v>34</v>
       </c>
@@ -3091,7 +3138,7 @@
       <c r="I2" s="45"/>
       <c r="J2" s="46"/>
     </row>
-    <row r="3" spans="1:10" s="5" customFormat="1" ht="60">
+    <row r="3" spans="1:10" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
@@ -3099,7 +3146,7 @@
         <v>198</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>12</v>
@@ -3117,13 +3164,13 @@
         <v>11</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="5" customFormat="1" ht="135">
+    <row r="4" spans="1:10" s="5" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
@@ -3131,7 +3178,7 @@
         <v>199</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>35</v>
@@ -3149,43 +3196,43 @@
         <v>11</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="5" customFormat="1" ht="45">
+    <row r="5" spans="1:10" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="5" customFormat="1" ht="43.5">
+    <row r="6" spans="1:10" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>134</v>
       </c>
@@ -3211,15 +3258,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="5" customFormat="1" ht="60">
+    <row r="7" spans="1:10" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>25</v>
@@ -3237,19 +3284,19 @@
         <v>11</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="5" customFormat="1" ht="45">
+    <row r="8" spans="1:10" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>134</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="41" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>17</v>
@@ -3271,7 +3318,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="45">
+    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="29"/>
       <c r="B9" s="30"/>
       <c r="C9" s="39"/>
@@ -3295,7 +3342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="135">
+    <row r="10" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>16</v>
       </c>
@@ -3303,7 +3350,7 @@
         <v>200</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>9</v>
@@ -3312,7 +3359,7 @@
         <v>140</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>10</v>
@@ -3321,13 +3368,13 @@
         <v>11</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="23.25">
+    <row r="11" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
         <v>33</v>
       </c>
@@ -3341,7 +3388,7 @@
       <c r="I11" s="45"/>
       <c r="J11" s="46"/>
     </row>
-    <row r="12" spans="1:10" ht="30">
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>16</v>
       </c>
@@ -3349,16 +3396,16 @@
         <v>210</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>31</v>
@@ -3367,13 +3414,13 @@
         <v>11</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="75">
+    <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>16</v>
       </c>
@@ -3381,7 +3428,7 @@
         <v>212</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>38</v>
@@ -3399,30 +3446,30 @@
         <v>11</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="45">
+    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B14" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>386</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="C14" s="40" t="s">
-        <v>388</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="E14" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="E14" s="25" t="s">
-        <v>220</v>
-      </c>
       <c r="F14" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="10" t="s">
@@ -3433,7 +3480,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="30">
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="15"/>
       <c r="C15" s="41"/>
@@ -3457,7 +3504,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="30">
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>84</v>
       </c>
@@ -3470,7 +3517,7 @@
         <v>130</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>44</v>
@@ -3483,19 +3530,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="45">
+    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>143</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="41" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>46</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>47</v>
@@ -3511,7 +3558,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="30">
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="15"/>
       <c r="C18" s="41"/>
@@ -3535,7 +3582,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="30">
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="15"/>
       <c r="C19" s="41"/>
@@ -3559,7 +3606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="30">
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="15"/>
       <c r="C20" s="41"/>
@@ -3583,7 +3630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="23.25">
+    <row r="21" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A21" s="44" t="s">
         <v>128</v>
       </c>
@@ -3597,7 +3644,7 @@
       <c r="I21" s="45"/>
       <c r="J21" s="46"/>
     </row>
-    <row r="22" spans="1:10" ht="75">
+    <row r="22" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>16</v>
       </c>
@@ -3605,7 +3652,7 @@
         <v>208</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>162</v>
@@ -3621,41 +3668,41 @@
         <v>11</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J22" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="45">
+    <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="E23" s="24" t="s">
         <v>373</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="D23" s="9" t="s">
+      <c r="F23" s="9" t="s">
         <v>374</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>375</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>376</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="9" t="s">
         <v>173</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="J23" s="9"/>
     </row>
-    <row r="24" spans="1:10" s="7" customFormat="1" ht="150">
+    <row r="24" spans="1:10" s="7" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>16</v>
       </c>
@@ -3663,7 +3710,7 @@
         <v>207</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>92</v>
@@ -3681,21 +3728,21 @@
         <v>11</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J24" s="13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="7" customFormat="1" ht="60">
+    <row r="25" spans="1:10" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>392</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>394</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>92</v>
@@ -3713,21 +3760,21 @@
         <v>11</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J25" s="13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="7" customFormat="1" ht="60">
+    <row r="26" spans="1:10" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B26" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>393</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>395</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>92</v>
@@ -3745,13 +3792,13 @@
         <v>11</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J26" s="13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="30">
+    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="15"/>
       <c r="C27" s="41"/>
@@ -3775,21 +3822,21 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="30">
+    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="15"/>
       <c r="C28" s="41"/>
       <c r="D28" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="E28" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="F28" s="3" t="s">
+      <c r="G28" s="6" t="s">
         <v>262</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>263</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>173</v>
@@ -3799,7 +3846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="30">
+    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>134</v>
       </c>
@@ -3825,7 +3872,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>134</v>
       </c>
@@ -3851,7 +3898,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="51" t="s">
         <v>134</v>
       </c>
@@ -3864,7 +3911,7 @@
         <v>152</v>
       </c>
       <c r="F31" s="51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>70</v>
@@ -3877,7 +3924,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="29.25" customHeight="1">
+    <row r="32" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="52"/>
       <c r="B32" s="48"/>
       <c r="C32" s="37"/>
@@ -3891,7 +3938,7 @@
       <c r="I32" s="35"/>
       <c r="J32" s="52"/>
     </row>
-    <row r="33" spans="1:10" ht="30">
+    <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="15"/>
       <c r="C33" s="41"/>
@@ -3915,33 +3962,33 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="30">
+    <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B34" s="15"/>
       <c r="C34" s="41"/>
       <c r="D34" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="E34" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="E34" s="15" t="s">
-        <v>257</v>
-      </c>
       <c r="F34" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>173</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="15"/>
       <c r="C35" s="41"/>
@@ -3952,7 +3999,7 @@
         <v>194</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>196</v>
@@ -3965,129 +4012,129 @@
         <v>197</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="33" customFormat="1" ht="90">
+    <row r="36" spans="1:10" s="33" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="D36" s="11" t="s">
         <v>215</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>216</v>
       </c>
       <c r="E36" s="24" t="s">
         <v>77</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>11</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J36" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="33" customFormat="1" ht="30">
+    <row r="37" spans="1:10" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="9" t="s">
         <v>11</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J37" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="33" customFormat="1" ht="30">
+    <row r="38" spans="1:10" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G38" s="11"/>
       <c r="H38" s="9" t="s">
         <v>173</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J38" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="33" customFormat="1" ht="45">
+    <row r="39" spans="1:10" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G39" s="11"/>
       <c r="H39" s="9" t="s">
         <v>173</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J39" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="30">
+    <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>84</v>
       </c>
@@ -4113,7 +4160,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="30">
+    <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>84</v>
       </c>
@@ -4139,7 +4186,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="30">
+    <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>84</v>
       </c>
@@ -4165,7 +4212,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="30">
+    <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="15"/>
       <c r="C43" s="41"/>
@@ -4189,7 +4236,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="45">
+    <row r="44" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="15"/>
       <c r="C44" s="41"/>
@@ -4200,7 +4247,7 @@
         <v>104</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>102</v>
@@ -4213,7 +4260,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="45">
+    <row r="45" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="15"/>
       <c r="C45" s="41"/>
@@ -4227,7 +4274,7 @@
         <v>106</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>11</v>
@@ -4237,15 +4284,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="120">
+    <row r="46" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>115</v>
@@ -4263,13 +4310,13 @@
         <v>11</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J46" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="30">
+    <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>84</v>
       </c>
@@ -4295,7 +4342,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="30">
+    <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="15"/>
       <c r="C48" s="41"/>
@@ -4306,7 +4353,7 @@
         <v>157</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>110</v>
@@ -4319,7 +4366,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="23.25">
+    <row r="49" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A49" s="44" t="s">
         <v>91</v>
       </c>
@@ -4333,15 +4380,15 @@
       <c r="I49" s="45"/>
       <c r="J49" s="46"/>
     </row>
-    <row r="50" spans="1:10" ht="45">
+    <row r="50" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D50" s="13" t="s">
         <v>119</v>
@@ -4359,13 +4406,13 @@
         <v>21</v>
       </c>
       <c r="I50" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J50" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="75">
+    <row r="51" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>16</v>
       </c>
@@ -4373,205 +4420,207 @@
         <v>201</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E51" s="24" t="s">
         <v>137</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H51" s="13" t="s">
         <v>11</v>
       </c>
       <c r="I51" s="13" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J51" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="43" customFormat="1" ht="60">
+    <row r="52" spans="1:10" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D52" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="E52" s="24" t="s">
         <v>425</v>
       </c>
-      <c r="E52" s="24" t="s">
-        <v>427</v>
-      </c>
       <c r="F52" s="14" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G52" s="14"/>
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
       <c r="J52" s="13"/>
     </row>
-    <row r="53" spans="1:10" s="43" customFormat="1" ht="45">
+    <row r="53" spans="1:10" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="39"/>
       <c r="B53" s="30" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C53" s="39"/>
       <c r="D53" s="39" t="s">
+        <v>455</v>
+      </c>
+      <c r="E53" s="30" t="s">
         <v>457</v>
       </c>
-      <c r="E53" s="30" t="s">
-        <v>459</v>
-      </c>
       <c r="F53" s="42" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G53" s="42"/>
       <c r="H53" s="39"/>
       <c r="I53" s="39"/>
       <c r="J53" s="39"/>
     </row>
-    <row r="54" spans="1:10" s="43" customFormat="1">
-      <c r="A54" s="39"/>
+    <row r="54" spans="1:10" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="B54" s="30" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C54" s="39"/>
       <c r="D54" s="39" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E54" s="30" t="s">
         <v>130</v>
       </c>
       <c r="F54" s="42" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G54" s="42"/>
       <c r="H54" s="39"/>
       <c r="I54" s="39"/>
       <c r="J54" s="39"/>
     </row>
-    <row r="55" spans="1:10" s="43" customFormat="1" ht="60">
+    <row r="55" spans="1:10" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="39"/>
       <c r="B55" s="30" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C55" s="39" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D55" s="39" t="s">
+        <v>430</v>
+      </c>
+      <c r="E55" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="F55" s="42" t="s">
         <v>432</v>
-      </c>
-      <c r="E55" s="30" t="s">
-        <v>433</v>
-      </c>
-      <c r="F55" s="42" t="s">
-        <v>434</v>
       </c>
       <c r="G55" s="42"/>
       <c r="H55" s="39"/>
       <c r="I55" s="39"/>
       <c r="J55" s="39"/>
     </row>
-    <row r="56" spans="1:10" s="43" customFormat="1" ht="60">
+    <row r="56" spans="1:10" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="39"/>
       <c r="B56" s="30" t="s">
+        <v>441</v>
+      </c>
+      <c r="C56" s="39" t="s">
+        <v>442</v>
+      </c>
+      <c r="D56" s="39" t="s">
         <v>443</v>
       </c>
-      <c r="C56" s="39" t="s">
+      <c r="E56" s="30" t="s">
         <v>444</v>
       </c>
-      <c r="D56" s="39" t="s">
-        <v>445</v>
-      </c>
-      <c r="E56" s="30" t="s">
-        <v>446</v>
-      </c>
       <c r="F56" s="42" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G56" s="42"/>
       <c r="H56" s="39"/>
       <c r="I56" s="39"/>
       <c r="J56" s="39"/>
     </row>
-    <row r="57" spans="1:10" s="43" customFormat="1" ht="60">
+    <row r="57" spans="1:10" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="39"/>
       <c r="B57" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="C57" s="39" t="s">
+        <v>446</v>
+      </c>
+      <c r="D57" s="39" t="s">
         <v>447</v>
       </c>
-      <c r="C57" s="39" t="s">
+      <c r="E57" s="30" t="s">
         <v>448</v>
       </c>
-      <c r="D57" s="39" t="s">
+      <c r="F57" s="42" t="s">
         <v>449</v>
-      </c>
-      <c r="E57" s="30" t="s">
-        <v>450</v>
-      </c>
-      <c r="F57" s="42" t="s">
-        <v>451</v>
       </c>
       <c r="G57" s="42"/>
       <c r="H57" s="39"/>
       <c r="I57" s="39"/>
       <c r="J57" s="39"/>
     </row>
-    <row r="58" spans="1:10" s="43" customFormat="1" ht="30">
+    <row r="58" spans="1:10" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="39"/>
       <c r="B58" s="30" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C58" s="39" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D58" s="39" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E58" s="30" t="s">
         <v>154</v>
       </c>
       <c r="F58" s="42" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G58" s="42"/>
       <c r="H58" s="39"/>
       <c r="I58" s="39"/>
       <c r="J58" s="39"/>
     </row>
-    <row r="59" spans="1:10" s="43" customFormat="1" ht="30">
+    <row r="59" spans="1:10" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="39"/>
       <c r="B59" s="30" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C59" s="39" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D59" s="39" t="s">
+        <v>433</v>
+      </c>
+      <c r="E59" s="30" t="s">
+        <v>434</v>
+      </c>
+      <c r="F59" s="42" t="s">
         <v>435</v>
-      </c>
-      <c r="E59" s="30" t="s">
-        <v>436</v>
-      </c>
-      <c r="F59" s="42" t="s">
-        <v>437</v>
       </c>
       <c r="G59" s="42"/>
       <c r="H59" s="39"/>
       <c r="I59" s="39"/>
       <c r="J59" s="39"/>
     </row>
-    <row r="60" spans="1:10" ht="45">
+    <row r="60" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>16</v>
       </c>
@@ -4579,7 +4628,7 @@
         <v>211</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>107</v>
@@ -4601,7 +4650,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="30">
+    <row r="61" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="15"/>
       <c r="C61" s="41"/>
@@ -4625,7 +4674,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="15"/>
       <c r="C62" s="41"/>
@@ -4649,7 +4698,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="30">
+    <row r="63" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="15"/>
       <c r="C63" s="41"/>
@@ -4673,7 +4722,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="30">
+    <row r="64" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="15"/>
       <c r="C64" s="41"/>
@@ -4697,7 +4746,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="15"/>
       <c r="C65" s="41"/>
@@ -4721,7 +4770,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="30">
+    <row r="66" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="15"/>
       <c r="C66" s="41"/>
@@ -4745,21 +4794,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C67" s="41"/>
       <c r="D67" s="3"/>
       <c r="E67" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="F67" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="F67" s="3" t="s">
+      <c r="G67" s="6" t="s">
         <v>242</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>243</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>173</v>
@@ -4769,7 +4818,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="23.25">
+    <row r="68" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A68" s="44" t="s">
         <v>164</v>
       </c>
@@ -4783,127 +4832,127 @@
       <c r="I68" s="45"/>
       <c r="J68" s="46"/>
     </row>
-    <row r="69" spans="1:10" ht="75">
+    <row r="69" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B69" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E69" s="24" t="s">
         <v>294</v>
       </c>
-      <c r="C69" s="13" t="s">
-        <v>404</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="E69" s="24" t="s">
-        <v>295</v>
-      </c>
       <c r="F69" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G69" s="9"/>
       <c r="H69" s="9" t="s">
         <v>173</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J69" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="75">
+    <row r="70" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B70" s="24" t="s">
+        <v>720</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>721</v>
+      </c>
+      <c r="D70" s="9" t="s">
         <v>722</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="E70" s="24" t="s">
         <v>723</v>
       </c>
-      <c r="D70" s="9" t="s">
+      <c r="F70" s="9" t="s">
         <v>724</v>
       </c>
-      <c r="E70" s="24" t="s">
-        <v>725</v>
-      </c>
-      <c r="F70" s="9" t="s">
+      <c r="G70" s="9" t="s">
         <v>726</v>
-      </c>
-      <c r="G70" s="9" t="s">
-        <v>728</v>
       </c>
       <c r="H70" s="9" t="s">
         <v>11</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="J70" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="60">
+    <row r="71" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
       <c r="B71" s="24" t="s">
+        <v>727</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>728</v>
+      </c>
+      <c r="D71" s="9" t="s">
         <v>729</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="E71" s="24" t="s">
         <v>730</v>
       </c>
-      <c r="D71" s="9" t="s">
-        <v>731</v>
-      </c>
-      <c r="E71" s="24" t="s">
+      <c r="F71" s="9" t="s">
         <v>732</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>734</v>
       </c>
       <c r="G71" s="9"/>
       <c r="H71" s="9" t="s">
         <v>11</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="J71" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="75">
+    <row r="72" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C72" s="13" t="s">
         <v>65</v>
       </c>
       <c r="D72" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="E72" s="24" t="s">
         <v>305</v>
       </c>
-      <c r="E72" s="24" t="s">
+      <c r="F72" s="9" t="s">
         <v>306</v>
-      </c>
-      <c r="F72" s="9" t="s">
-        <v>307</v>
       </c>
       <c r="G72" s="9"/>
       <c r="H72" s="9" t="s">
         <v>11</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J72" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="30">
+    <row r="73" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>16</v>
       </c>
@@ -4911,7 +4960,7 @@
         <v>202</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>174</v>
@@ -4927,51 +4976,51 @@
         <v>173</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J73" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="30">
+    <row r="74" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B74" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E74" s="24" t="s">
         <v>318</v>
       </c>
-      <c r="C74" s="13" t="s">
-        <v>406</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="E74" s="24" t="s">
+      <c r="F74" s="9" t="s">
         <v>320</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>322</v>
       </c>
       <c r="G74" s="9"/>
       <c r="H74" s="9" t="s">
         <v>29</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="J74" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="60">
+    <row r="75" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>166</v>
@@ -4987,13 +5036,13 @@
         <v>21</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J75" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="120">
+    <row r="76" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>16</v>
       </c>
@@ -5001,7 +5050,7 @@
         <v>206</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>167</v>
@@ -5017,81 +5066,81 @@
         <v>11</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J76" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="30">
+    <row r="77" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D77" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="E77" s="24" t="s">
         <v>296</v>
       </c>
-      <c r="E77" s="24" t="s">
-        <v>297</v>
-      </c>
       <c r="F77" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G77" s="11"/>
       <c r="H77" s="9" t="s">
         <v>173</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J77" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="45">
+    <row r="78" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B78" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="E78" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="C78" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="D78" s="9" t="s">
+      <c r="F78" s="9" t="s">
         <v>313</v>
-      </c>
-      <c r="E78" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="F78" s="9" t="s">
-        <v>315</v>
       </c>
       <c r="G78" s="11"/>
       <c r="H78" s="9" t="s">
         <v>29</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="J78" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="105">
-      <c r="A79" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B79" s="25" t="s">
-        <v>720</v>
+    <row r="79" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79" s="24" t="s">
+        <v>718</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>204</v>
@@ -5107,104 +5156,112 @@
         <v>21</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J79" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
-      <c r="A80" s="10"/>
-      <c r="B80" s="25"/>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B80" s="24" t="s">
+        <v>747</v>
+      </c>
       <c r="C80" s="13" t="s">
+        <v>733</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="E80" s="24" t="s">
+        <v>734</v>
+      </c>
+      <c r="F80" s="9" t="s">
         <v>735</v>
       </c>
-      <c r="D80" s="9" t="s">
-        <v>738</v>
-      </c>
-      <c r="E80" s="24" t="s">
-        <v>736</v>
-      </c>
-      <c r="F80" s="9" t="s">
-        <v>737</v>
-      </c>
       <c r="G80" s="11"/>
-      <c r="H80" s="9"/>
+      <c r="H80" s="9" t="s">
+        <v>173</v>
+      </c>
       <c r="I80" s="9"/>
-      <c r="J80" s="9"/>
-    </row>
-    <row r="81" spans="1:10">
-      <c r="A81" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B81" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="C81" s="41"/>
-      <c r="D81" s="3" t="s">
+      <c r="J80" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81" s="24" t="s">
+        <v>748</v>
+      </c>
+      <c r="C81" s="13"/>
+      <c r="D81" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="E81" s="15" t="s">
+      <c r="E81" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="F81" s="3" t="s">
+      <c r="F81" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="G81" s="6"/>
-      <c r="H81" s="3" t="s">
+      <c r="G81" s="11"/>
+      <c r="H81" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3" t="s">
+      <c r="I81" s="9"/>
+      <c r="J81" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="75">
+    <row r="82" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B82" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="E82" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="F82" s="9" t="s">
         <v>223</v>
-      </c>
-      <c r="C82" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="E82" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="F82" s="9" t="s">
-        <v>224</v>
       </c>
       <c r="G82" s="11"/>
       <c r="H82" s="9" t="s">
         <v>21</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J82" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C83" s="41"/>
       <c r="D83" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E83" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="E83" s="15" t="s">
+      <c r="F83" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>228</v>
       </c>
       <c r="G83" s="6"/>
       <c r="H83" s="3" t="s">
@@ -5215,145 +5272,145 @@
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="45">
+    <row r="84" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C84" s="40"/>
       <c r="D84" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="E84" s="25" t="s">
         <v>327</v>
       </c>
-      <c r="E84" s="25" t="s">
-        <v>329</v>
-      </c>
       <c r="F84" s="10" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G84" s="12"/>
       <c r="H84" s="10" t="s">
         <v>11</v>
       </c>
       <c r="I84" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J84" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="75">
+    <row r="85" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B85" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="E85" s="24" t="s">
         <v>323</v>
       </c>
-      <c r="C85" s="13" t="s">
-        <v>413</v>
-      </c>
-      <c r="D85" s="9" t="s">
+      <c r="F85" s="9" t="s">
         <v>324</v>
-      </c>
-      <c r="E85" s="24" t="s">
-        <v>325</v>
-      </c>
-      <c r="F85" s="9" t="s">
-        <v>326</v>
       </c>
       <c r="G85" s="11"/>
       <c r="H85" s="9" t="s">
         <v>11</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J85" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="45">
+    <row r="86" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C86" s="41"/>
       <c r="D86" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E86" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="E86" s="15" t="s">
-        <v>290</v>
-      </c>
       <c r="F86" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G86" s="6"/>
       <c r="H86" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J86" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="30">
+    <row r="87" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B87" s="25"/>
       <c r="C87" s="40"/>
       <c r="D87" s="10" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E87" s="25" t="s">
         <v>146</v>
       </c>
       <c r="F87" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="G87" s="10" t="s">
         <v>369</v>
-      </c>
-      <c r="G87" s="10" t="s">
-        <v>371</v>
       </c>
       <c r="H87" s="10"/>
       <c r="I87" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J87" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="60">
+    <row r="88" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="15"/>
       <c r="C88" s="41"/>
       <c r="D88" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G88" s="6"/>
       <c r="H88" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J88" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="45">
+    <row r="89" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B89" s="15"/>
       <c r="C89" s="41"/>
@@ -5364,7 +5421,7 @@
         <v>150</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>179</v>
@@ -5377,9 +5434,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="45">
+    <row r="90" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B90" s="15"/>
       <c r="C90" s="41"/>
@@ -5390,7 +5447,7 @@
         <v>178</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>179</v>
@@ -5403,9 +5460,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="45">
+    <row r="91" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B91" s="15"/>
       <c r="C91" s="41"/>
@@ -5416,7 +5473,7 @@
         <v>182</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>179</v>
@@ -5429,9 +5486,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="23.25" customHeight="1">
+    <row r="92" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="44" t="s">
-        <v>309</v>
+        <v>750</v>
       </c>
       <c r="B92" s="45"/>
       <c r="C92" s="45"/>
@@ -5443,309 +5500,405 @@
       <c r="I92" s="45"/>
       <c r="J92" s="46"/>
     </row>
-    <row r="93" spans="1:10" ht="45">
+    <row r="93" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B93" s="24" t="s">
-        <v>342</v>
+        <v>421</v>
       </c>
       <c r="C93" s="13" t="s">
         <v>414</v>
       </c>
-      <c r="D93" s="13" t="s">
-        <v>349</v>
+      <c r="D93" s="9" t="s">
+        <v>308</v>
       </c>
       <c r="E93" s="24" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="G93" s="9"/>
       <c r="H93" s="9" t="s">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="I93" s="9" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="J93" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="45">
+    <row r="94" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B94" s="24" t="s">
-        <v>345</v>
+        <v>719</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>415</v>
-      </c>
-      <c r="D94" s="13" t="s">
-        <v>350</v>
+        <v>268</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>330</v>
       </c>
       <c r="E94" s="24" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="G94" s="9"/>
       <c r="H94" s="9" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>356</v>
+        <v>268</v>
       </c>
       <c r="J94" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="45">
-      <c r="A95" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B95" s="24" t="s">
-        <v>423</v>
-      </c>
-      <c r="C95" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="E95" s="24" t="s">
-        <v>311</v>
-      </c>
-      <c r="F95" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="G95" s="9"/>
-      <c r="H95" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="I95" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="J95" s="9" t="s">
+    <row r="95" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="29"/>
+      <c r="B95" s="30" t="s">
+        <v>742</v>
+      </c>
+      <c r="C95" s="39"/>
+      <c r="D95" s="29" t="s">
+        <v>743</v>
+      </c>
+      <c r="E95" s="30" t="s">
+        <v>744</v>
+      </c>
+      <c r="F95" s="29" t="s">
+        <v>745</v>
+      </c>
+      <c r="G95" s="29"/>
+      <c r="H95" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="I95" s="29" t="s">
+        <v>746</v>
+      </c>
+      <c r="J95" s="29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="30">
-      <c r="A96" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B96" s="24" t="s">
-        <v>721</v>
-      </c>
-      <c r="C96" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="E96" s="24" t="s">
-        <v>333</v>
-      </c>
-      <c r="F96" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="G96" s="9"/>
-      <c r="H96" s="9" t="s">
+    <row r="96" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="29"/>
+      <c r="B96" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="C96" s="39"/>
+      <c r="D96" s="29" t="s">
+        <v>737</v>
+      </c>
+      <c r="E96" s="30" t="s">
+        <v>740</v>
+      </c>
+      <c r="F96" s="29" t="s">
+        <v>739</v>
+      </c>
+      <c r="G96" s="29"/>
+      <c r="H96" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I96" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="J96" s="9" t="s">
+      <c r="I96" s="29" t="s">
+        <v>741</v>
+      </c>
+      <c r="J96" s="29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="45">
-      <c r="A97" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B97" s="24" t="s">
-        <v>335</v>
-      </c>
-      <c r="C97" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="E97" s="24" t="s">
-        <v>336</v>
-      </c>
-      <c r="F97" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="G97" s="9"/>
-      <c r="H97" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I97" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="J97" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="30">
+    <row r="97" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A97" s="44" t="s">
+        <v>749</v>
+      </c>
+      <c r="B97" s="45"/>
+      <c r="C97" s="45"/>
+      <c r="D97" s="45"/>
+      <c r="E97" s="45"/>
+      <c r="F97" s="45"/>
+      <c r="G97" s="45"/>
+      <c r="H97" s="45"/>
+      <c r="I97" s="45"/>
+      <c r="J97" s="46"/>
+    </row>
+    <row r="98" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B98" s="24" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>338</v>
+        <v>412</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>347</v>
       </c>
       <c r="E98" s="24" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="G98" s="9"/>
       <c r="H98" s="9" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="I98" s="9" t="s">
-        <v>269</v>
+        <v>342</v>
       </c>
       <c r="J98" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="75">
-      <c r="A99" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B99" s="25" t="s">
-        <v>352</v>
-      </c>
-      <c r="C99" s="40"/>
-      <c r="D99" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E99" s="25" t="s">
+    <row r="99" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A99" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B99" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="D99" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="E99" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="F99" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="F99" s="10" t="s">
+      <c r="G99" s="9"/>
+      <c r="H99" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I99" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="G99" s="10"/>
-      <c r="H99" s="10" t="s">
+      <c r="J99" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B100" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="E100" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I99" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="J99" s="10" t="s">
+      <c r="I100" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="J100" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="23.25" customHeight="1">
-      <c r="A100" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="B100" s="45"/>
-      <c r="C100" s="45"/>
-      <c r="D100" s="45"/>
-      <c r="E100" s="45"/>
-      <c r="F100" s="45"/>
-      <c r="G100" s="45"/>
-      <c r="H100" s="45"/>
-      <c r="I100" s="45"/>
-      <c r="J100" s="46"/>
-    </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B101" s="24"/>
-      <c r="C101" s="13"/>
+      <c r="B101" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>268</v>
+      </c>
       <c r="D101" s="9" t="s">
-        <v>124</v>
+        <v>336</v>
       </c>
       <c r="E101" s="24" t="s">
-        <v>160</v>
+        <v>338</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>123</v>
+        <v>339</v>
       </c>
       <c r="G101" s="9"/>
       <c r="H101" s="9" t="s">
-        <v>173</v>
+        <v>11</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J101" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B102" s="24"/>
-      <c r="C102" s="13"/>
+      <c r="B102" s="24" t="s">
+        <v>751</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>268</v>
+      </c>
       <c r="D102" s="9" t="s">
-        <v>125</v>
+        <v>751</v>
       </c>
       <c r="E102" s="24" t="s">
-        <v>161</v>
+        <v>752</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>234</v>
+        <v>753</v>
       </c>
       <c r="G102" s="9"/>
       <c r="H102" s="9" t="s">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="I102" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J102" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
-      <c r="A103" s="9" t="s">
+    <row r="103" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A103" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B103" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C103" s="40"/>
+      <c r="D103" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="E103" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="F103" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="G103" s="10"/>
+      <c r="H103" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I103" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="J103" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="B104" s="45"/>
+      <c r="C104" s="45"/>
+      <c r="D104" s="45"/>
+      <c r="E104" s="45"/>
+      <c r="F104" s="45"/>
+      <c r="G104" s="45"/>
+      <c r="H104" s="45"/>
+      <c r="I104" s="45"/>
+      <c r="J104" s="46"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B103" s="24"/>
-      <c r="C103" s="13"/>
-      <c r="D103" s="9" t="s">
+      <c r="B105" s="24"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E105" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="I105" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="J105" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B106" s="24"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E106" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I106" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="J106" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B107" s="24"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="E107" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="E103" s="24" t="s">
+      <c r="F107" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="F103" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="G103" s="9"/>
-      <c r="H103" s="9" t="s">
+      <c r="G107" s="9"/>
+      <c r="H107" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I103" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="J103" s="9" t="s">
+      <c r="I107" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="J107" s="9" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A100:J100"/>
+  <mergeCells count="15">
+    <mergeCell ref="A104:J104"/>
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="A49:J49"/>
     <mergeCell ref="A11:J11"/>
@@ -5759,6 +5912,7 @@
     <mergeCell ref="A68:J68"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="A92:J92"/>
+    <mergeCell ref="A97:J97"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G13" r:id="rId1"/>
@@ -5852,1309 +6006,1309 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="54.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C1" t="s">
+        <v>717</v>
+      </c>
+      <c r="D1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>461</v>
       </c>
-      <c r="C1" t="s">
-        <v>719</v>
-      </c>
-      <c r="D1" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4">
-      <c r="B2" t="s">
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
-      <c r="B3" t="s">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
-      <c r="B4" t="s">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
-      <c r="B5" t="s">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
-      <c r="B6" t="s">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
-      <c r="B7" t="s">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
-      <c r="B8" t="s">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
-      <c r="B9" t="s">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
-      <c r="B10" t="s">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
-      <c r="B11" t="s">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
-      <c r="B12" t="s">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
-      <c r="B13" t="s">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
-      <c r="B14" t="s">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
-      <c r="B15" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
-      <c r="B16" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
-      <c r="B25" t="s">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
-      <c r="B26" t="s">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
-      <c r="B27" t="s">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
-      <c r="B28" t="s">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
-      <c r="B29" t="s">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
-      <c r="B30" t="s">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
-      <c r="B31" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
-      <c r="B32" t="s">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
-      <c r="B33" t="s">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
-      <c r="B34" t="s">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
-      <c r="B35" t="s">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
-      <c r="B36" t="s">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
-      <c r="B37" t="s">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
-      <c r="B38" t="s">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
-      <c r="B39" t="s">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
-      <c r="B40" t="s">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
-      <c r="B41" t="s">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
-      <c r="B42" t="s">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
-      <c r="B43" t="s">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
-      <c r="B44" t="s">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
-      <c r="B45" t="s">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
-      <c r="B46" t="s">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
-      <c r="B47" t="s">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
-      <c r="B48" t="s">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
-      <c r="B49" t="s">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
-      <c r="B50" t="s">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
-      <c r="B51" t="s">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
-      <c r="B52" t="s">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
-      <c r="B53" t="s">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
-      <c r="B54" t="s">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
-      <c r="B55" t="s">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
-      <c r="B56" t="s">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="57" spans="2:2">
-      <c r="B57" t="s">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
-      <c r="B58" t="s">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
-      <c r="B59" t="s">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="60" spans="2:2">
-      <c r="B60" t="s">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
-      <c r="B61" t="s">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="62" spans="2:2">
-      <c r="B62" t="s">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="63" spans="2:2">
-      <c r="B63" t="s">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="64" spans="2:2">
-      <c r="B64" t="s">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="65" spans="2:2">
-      <c r="B65" t="s">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="66" spans="2:2">
-      <c r="B66" t="s">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="67" spans="2:2">
-      <c r="B67" t="s">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="68" spans="2:2">
-      <c r="B68" t="s">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="69" spans="2:2">
-      <c r="B69" t="s">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="70" spans="2:2">
-      <c r="B70" t="s">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="71" spans="2:2">
-      <c r="B71" t="s">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="72" spans="2:2">
-      <c r="B72" t="s">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="73" spans="2:2">
-      <c r="B73" t="s">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="74" spans="2:2">
-      <c r="B74" t="s">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="75" spans="2:2">
-      <c r="B75" t="s">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="76" spans="2:2">
-      <c r="B76" t="s">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="77" spans="2:2">
-      <c r="B77" t="s">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="78" spans="2:2">
-      <c r="B78" t="s">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="79" spans="2:2">
-      <c r="B79" t="s">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="80" spans="2:2">
-      <c r="B80" t="s">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="81" spans="2:2">
-      <c r="B81" t="s">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="82" spans="2:2">
-      <c r="B82" t="s">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="83" spans="2:2">
-      <c r="B83" t="s">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="84" spans="2:2">
-      <c r="B84" t="s">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="85" spans="2:2">
-      <c r="B85" t="s">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="86" spans="2:2">
-      <c r="B86" t="s">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="87" spans="2:2">
-      <c r="B87" t="s">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="88" spans="2:2">
-      <c r="B88" t="s">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="89" spans="2:2">
-      <c r="B89" t="s">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="90" spans="2:2">
-      <c r="B90" t="s">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="91" spans="2:2">
-      <c r="B91" t="s">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="92" spans="2:2">
-      <c r="B92" t="s">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="93" spans="2:2">
-      <c r="B93" t="s">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="94" spans="2:2">
-      <c r="B94" t="s">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="95" spans="2:2">
-      <c r="B95" t="s">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="96" spans="2:2">
-      <c r="B96" t="s">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="97" spans="2:2">
-      <c r="B97" t="s">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="98" spans="2:2">
-      <c r="B98" t="s">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="99" spans="2:2">
-      <c r="B99" t="s">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="100" spans="2:2">
-      <c r="B100" t="s">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="101" spans="2:2">
-      <c r="B101" t="s">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="102" spans="2:2">
-      <c r="B102" t="s">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="103" spans="2:2">
-      <c r="B103" t="s">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="104" spans="2:2">
-      <c r="B104" t="s">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="105" spans="2:2">
-      <c r="B105" t="s">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="106" spans="2:2">
-      <c r="B106" t="s">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="107" spans="2:2">
-      <c r="B107" t="s">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="108" spans="2:2">
-      <c r="B108" t="s">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="109" spans="2:2">
-      <c r="B109" t="s">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="110" spans="2:2">
-      <c r="B110" t="s">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="111" spans="2:2">
-      <c r="B111" t="s">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="112" spans="2:2">
-      <c r="B112" t="s">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="113" spans="2:2">
-      <c r="B113" t="s">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="114" spans="2:2">
-      <c r="B114" t="s">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="115" spans="2:2">
-      <c r="B115" t="s">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="116" spans="2:2">
-      <c r="B116" t="s">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="117" spans="2:2">
-      <c r="B117" t="s">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="118" spans="2:2">
-      <c r="B118" t="s">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="119" spans="2:2">
-      <c r="B119" t="s">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="120" spans="2:2">
-      <c r="B120" t="s">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="121" spans="2:2">
-      <c r="B121" t="s">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="122" spans="2:2">
-      <c r="B122" t="s">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="123" spans="2:2">
-      <c r="B123" t="s">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="124" spans="2:2">
-      <c r="B124" t="s">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="125" spans="2:2">
-      <c r="B125" t="s">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="126" spans="2:2">
-      <c r="B126" t="s">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="127" spans="2:2">
-      <c r="B127" t="s">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="128" spans="2:2">
-      <c r="B128" t="s">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="129" spans="2:2">
-      <c r="B129" t="s">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="130" spans="2:2">
-      <c r="B130" t="s">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="131" spans="2:2">
-      <c r="B131" t="s">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="132" spans="2:2">
-      <c r="B132" t="s">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="133" spans="2:2">
-      <c r="B133" t="s">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="134" spans="2:2">
-      <c r="B134" t="s">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="135" spans="2:2">
-      <c r="B135" t="s">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="136" spans="2:2">
-      <c r="B136" t="s">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="137" spans="2:2">
-      <c r="B137" t="s">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="138" spans="2:2">
-      <c r="B138" t="s">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="139" spans="2:2">
-      <c r="B139" t="s">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="140" spans="2:2">
-      <c r="B140" t="s">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="141" spans="2:2">
-      <c r="B141" t="s">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="142" spans="2:2">
-      <c r="B142" t="s">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="143" spans="2:2">
-      <c r="B143" t="s">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="144" spans="2:2">
-      <c r="B144" t="s">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="145" spans="2:2">
-      <c r="B145" t="s">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="146" spans="2:2">
-      <c r="B146" t="s">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="147" spans="2:2">
-      <c r="B147" t="s">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="148" spans="2:2">
-      <c r="B148" t="s">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="149" spans="2:2">
-      <c r="B149" t="s">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="150" spans="2:2">
-      <c r="B150" t="s">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="151" spans="2:2">
-      <c r="B151" t="s">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="152" spans="2:2">
-      <c r="B152" t="s">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="153" spans="2:2">
-      <c r="B153" t="s">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="154" spans="2:2">
-      <c r="B154" t="s">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="155" spans="2:2">
-      <c r="B155" t="s">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="156" spans="2:2">
-      <c r="B156" t="s">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="157" spans="2:2">
-      <c r="B157" t="s">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="158" spans="2:2">
-      <c r="B158" t="s">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="159" spans="2:2">
-      <c r="B159" t="s">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="160" spans="2:2">
-      <c r="B160" t="s">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="161" spans="2:2">
-      <c r="B161" t="s">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="162" spans="2:2">
-      <c r="B162" t="s">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="163" spans="2:2">
-      <c r="B163" t="s">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="164" spans="2:2">
-      <c r="B164" t="s">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="165" spans="2:2">
-      <c r="B165" t="s">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="166" spans="2:2">
-      <c r="B166" t="s">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="167" spans="2:2">
-      <c r="B167" t="s">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="168" spans="2:2">
-      <c r="B168" t="s">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="169" spans="2:2">
-      <c r="B169" t="s">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="170" spans="2:2">
-      <c r="B170" t="s">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="171" spans="2:2">
-      <c r="B171" t="s">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="172" spans="2:2">
-      <c r="B172" t="s">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="173" spans="2:2">
-      <c r="B173" t="s">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="174" spans="2:2">
-      <c r="B174" t="s">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="175" spans="2:2">
-      <c r="B175" t="s">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="176" spans="2:2">
-      <c r="B176" t="s">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="177" spans="2:2">
-      <c r="B177" t="s">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="178" spans="2:2">
-      <c r="B178" t="s">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="179" spans="2:2">
-      <c r="B179" t="s">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="180" spans="2:2">
-      <c r="B180" t="s">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="181" spans="2:2">
-      <c r="B181" t="s">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="182" spans="2:2">
-      <c r="B182" t="s">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="183" spans="2:2">
-      <c r="B183" t="s">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="184" spans="2:2">
-      <c r="B184" t="s">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="185" spans="2:2">
-      <c r="B185" t="s">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="186" spans="2:2">
-      <c r="B186" t="s">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="187" spans="2:2">
-      <c r="B187" t="s">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="188" spans="2:2">
-      <c r="B188" t="s">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="189" spans="2:2">
-      <c r="B189" t="s">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="190" spans="2:2">
-      <c r="B190" t="s">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="191" spans="2:2">
-      <c r="B191" t="s">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="192" spans="2:2">
-      <c r="B192" t="s">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="193" spans="2:2">
-      <c r="B193" t="s">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="194" spans="2:2">
-      <c r="B194" t="s">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B196" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="195" spans="2:2">
-      <c r="B195" t="s">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="196" spans="2:2">
-      <c r="B196" t="s">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="197" spans="2:2">
-      <c r="B197" t="s">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="198" spans="2:2">
-      <c r="B198" t="s">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="199" spans="2:2">
-      <c r="B199" t="s">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="200" spans="2:2">
-      <c r="B200" t="s">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B202" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="201" spans="2:2">
-      <c r="B201" t="s">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="202" spans="2:2">
-      <c r="B202" t="s">
+    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B204" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="203" spans="2:2">
-      <c r="B203" t="s">
+    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B205" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="204" spans="2:2">
-      <c r="B204" t="s">
+    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B206" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="205" spans="2:2">
-      <c r="B205" t="s">
+    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B207" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="206" spans="2:2">
-      <c r="B206" t="s">
+    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B208" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="207" spans="2:2">
-      <c r="B207" t="s">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B209" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="208" spans="2:2">
-      <c r="B208" t="s">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B210" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="209" spans="2:2">
-      <c r="B209" t="s">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B211" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="210" spans="2:2">
-      <c r="B210" t="s">
+    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B212" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="211" spans="2:2">
-      <c r="B211" t="s">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B213" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="212" spans="2:2">
-      <c r="B212" t="s">
+    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B214" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="213" spans="2:2">
-      <c r="B213" t="s">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B215" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="214" spans="2:2">
-      <c r="B214" t="s">
+    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B216" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="215" spans="2:2">
-      <c r="B215" t="s">
+    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B217" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="216" spans="2:2">
-      <c r="B216" t="s">
+    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B218" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="217" spans="2:2">
-      <c r="B217" t="s">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B219" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="218" spans="2:2">
-      <c r="B218" t="s">
+    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B220" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="219" spans="2:2">
-      <c r="B219" t="s">
+    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B221" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="220" spans="2:2">
-      <c r="B220" t="s">
+    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B222" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="221" spans="2:2">
-      <c r="B221" t="s">
+    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B223" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="222" spans="2:2">
-      <c r="B222" t="s">
+    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B224" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="223" spans="2:2">
-      <c r="B223" t="s">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B225" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="224" spans="2:2">
-      <c r="B224" t="s">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B226" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="225" spans="2:2">
-      <c r="B225" t="s">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B227" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="226" spans="2:2">
-      <c r="B226" t="s">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B228" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="227" spans="2:2">
-      <c r="B227" t="s">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B229" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="228" spans="2:2">
-      <c r="B228" t="s">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B230" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="229" spans="2:2">
-      <c r="B229" t="s">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B231" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="230" spans="2:2">
-      <c r="B230" t="s">
+    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B232" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="231" spans="2:2">
-      <c r="B231" t="s">
+    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B233" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="232" spans="2:2">
-      <c r="B232" t="s">
+    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B234" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="233" spans="2:2">
-      <c r="B233" t="s">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B235" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="234" spans="2:2">
-      <c r="B234" t="s">
+    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B236" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="235" spans="2:2">
-      <c r="B235" t="s">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B237" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="236" spans="2:2">
-      <c r="B236" t="s">
+    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B238" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="237" spans="2:2">
-      <c r="B237" t="s">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B239" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="238" spans="2:2">
-      <c r="B238" t="s">
+    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B240" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="239" spans="2:2">
-      <c r="B239" t="s">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B241" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="240" spans="2:2">
-      <c r="B240" t="s">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B242" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="241" spans="2:2">
-      <c r="B241" t="s">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B243" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="242" spans="2:2">
-      <c r="B242" t="s">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B244" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="243" spans="2:2">
-      <c r="B243" t="s">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B245" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="244" spans="2:2">
-      <c r="B244" t="s">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B246" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="245" spans="2:2">
-      <c r="B245" t="s">
+    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B247" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="246" spans="2:2">
-      <c r="B246" t="s">
+    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B248" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="247" spans="2:2">
-      <c r="B247" t="s">
+    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B249" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="248" spans="2:2">
-      <c r="B248" t="s">
+    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B250" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="249" spans="2:2">
-      <c r="B249" t="s">
+    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B251" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="250" spans="2:2">
-      <c r="B250" t="s">
+    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B252" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="251" spans="2:2">
-      <c r="B251" t="s">
+    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B253" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="252" spans="2:2">
-      <c r="B252" t="s">
+    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B254" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="253" spans="2:2">
-      <c r="B253" t="s">
+    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B255" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="254" spans="2:2">
-      <c r="B254" t="s">
+    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B256" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="255" spans="2:2">
-      <c r="B255" t="s">
+    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B257" t="s">
         <v>715</v>
-      </c>
-    </row>
-    <row r="256" spans="2:2">
-      <c r="B256" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="257" spans="2:2">
-      <c r="B257" t="s">
-        <v>717</v>
       </c>
     </row>
   </sheetData>

--- a/Сервисы Ди.xlsx
+++ b/Сервисы Ди.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
@@ -2427,8 +2427,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2858,7 +2858,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2893,7 +2892,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -3069,15 +3067,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="26" customWidth="1"/>
@@ -3092,7 +3090,7 @@
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="17" customFormat="1" ht="30">
       <c r="A1" s="18" t="s">
         <v>126</v>
       </c>
@@ -3124,7 +3122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="23.25">
       <c r="A2" s="44" t="s">
         <v>34</v>
       </c>
@@ -3138,7 +3136,7 @@
       <c r="I2" s="45"/>
       <c r="J2" s="46"/>
     </row>
-    <row r="3" spans="1:10" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="5" customFormat="1" ht="60">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
@@ -3170,7 +3168,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="5" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="5" customFormat="1" ht="135">
       <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
@@ -3202,7 +3200,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="5" customFormat="1" ht="45">
       <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
@@ -3232,7 +3230,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="5" customFormat="1" ht="43.5">
       <c r="A6" s="27" t="s">
         <v>134</v>
       </c>
@@ -3258,7 +3256,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="5" customFormat="1" ht="60">
       <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
@@ -3290,7 +3288,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="5" customFormat="1" ht="45">
       <c r="A8" s="4" t="s">
         <v>134</v>
       </c>
@@ -3318,7 +3316,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="45">
       <c r="A9" s="29"/>
       <c r="B9" s="30"/>
       <c r="C9" s="39"/>
@@ -3342,7 +3340,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="135">
       <c r="A10" s="9" t="s">
         <v>16</v>
       </c>
@@ -3374,7 +3372,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="23.25">
       <c r="A11" s="44" t="s">
         <v>33</v>
       </c>
@@ -3388,7 +3386,7 @@
       <c r="I11" s="45"/>
       <c r="J11" s="46"/>
     </row>
-    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="30">
       <c r="A12" s="9" t="s">
         <v>16</v>
       </c>
@@ -3420,7 +3418,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="75">
       <c r="A13" s="9" t="s">
         <v>16</v>
       </c>
@@ -3452,7 +3450,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="45">
       <c r="A14" s="10" t="s">
         <v>271</v>
       </c>
@@ -3480,7 +3478,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="30">
       <c r="A15" s="3"/>
       <c r="B15" s="15"/>
       <c r="C15" s="41"/>
@@ -3504,7 +3502,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="30">
       <c r="A16" s="3" t="s">
         <v>84</v>
       </c>
@@ -3530,7 +3528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="45">
       <c r="A17" s="3" t="s">
         <v>143</v>
       </c>
@@ -3558,7 +3556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="30">
       <c r="A18" s="3"/>
       <c r="B18" s="15"/>
       <c r="C18" s="41"/>
@@ -3582,7 +3580,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="30">
       <c r="A19" s="3"/>
       <c r="B19" s="15"/>
       <c r="C19" s="41"/>
@@ -3606,7 +3604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="30">
       <c r="A20" s="3"/>
       <c r="B20" s="15"/>
       <c r="C20" s="41"/>
@@ -3630,7 +3628,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="23.25">
       <c r="A21" s="44" t="s">
         <v>128</v>
       </c>
@@ -3644,7 +3642,7 @@
       <c r="I21" s="45"/>
       <c r="J21" s="46"/>
     </row>
-    <row r="22" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="75">
       <c r="A22" s="9" t="s">
         <v>16</v>
       </c>
@@ -3674,7 +3672,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="45">
       <c r="A23" s="9" t="s">
         <v>16</v>
       </c>
@@ -3702,7 +3700,7 @@
       </c>
       <c r="J23" s="9"/>
     </row>
-    <row r="24" spans="1:10" s="7" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" s="7" customFormat="1" ht="150">
       <c r="A24" s="13" t="s">
         <v>16</v>
       </c>
@@ -3734,7 +3732,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" s="7" customFormat="1" ht="60">
       <c r="A25" s="13" t="s">
         <v>16</v>
       </c>
@@ -3766,7 +3764,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" s="7" customFormat="1" ht="60">
       <c r="A26" s="13" t="s">
         <v>16</v>
       </c>
@@ -3798,7 +3796,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="30">
       <c r="A27" s="3"/>
       <c r="B27" s="15"/>
       <c r="C27" s="41"/>
@@ -3822,7 +3820,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="30">
       <c r="A28" s="3"/>
       <c r="B28" s="15"/>
       <c r="C28" s="41"/>
@@ -3846,7 +3844,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="30">
       <c r="A29" s="3" t="s">
         <v>134</v>
       </c>
@@ -3872,7 +3870,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30" s="3" t="s">
         <v>134</v>
       </c>
@@ -3898,7 +3896,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" s="51" t="s">
         <v>134</v>
       </c>
@@ -3924,7 +3922,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="29.25" customHeight="1">
       <c r="A32" s="52"/>
       <c r="B32" s="48"/>
       <c r="C32" s="37"/>
@@ -3938,7 +3936,7 @@
       <c r="I32" s="35"/>
       <c r="J32" s="52"/>
     </row>
-    <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="30">
       <c r="A33" s="3"/>
       <c r="B33" s="15"/>
       <c r="C33" s="41"/>
@@ -3962,7 +3960,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="30">
       <c r="A34" s="3" t="s">
         <v>258</v>
       </c>
@@ -3988,7 +3986,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10">
       <c r="A35" s="3"/>
       <c r="B35" s="15"/>
       <c r="C35" s="41"/>
@@ -4012,7 +4010,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="33" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="33" customFormat="1" ht="90">
       <c r="A36" s="13" t="s">
         <v>16</v>
       </c>
@@ -4044,7 +4042,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" s="33" customFormat="1" ht="30">
       <c r="A37" s="13" t="s">
         <v>16</v>
       </c>
@@ -4074,7 +4072,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" s="33" customFormat="1" ht="30">
       <c r="A38" s="13" t="s">
         <v>16</v>
       </c>
@@ -4104,7 +4102,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" s="33" customFormat="1" ht="45">
       <c r="A39" s="13" t="s">
         <v>16</v>
       </c>
@@ -4134,7 +4132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="30">
       <c r="A40" s="16" t="s">
         <v>84</v>
       </c>
@@ -4160,7 +4158,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="30">
       <c r="A41" s="16" t="s">
         <v>84</v>
       </c>
@@ -4186,7 +4184,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="30">
       <c r="A42" s="16" t="s">
         <v>84</v>
       </c>
@@ -4212,7 +4210,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="30">
       <c r="A43" s="3"/>
       <c r="B43" s="15"/>
       <c r="C43" s="41"/>
@@ -4236,7 +4234,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="45">
       <c r="A44" s="3"/>
       <c r="B44" s="15"/>
       <c r="C44" s="41"/>
@@ -4260,7 +4258,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="45">
       <c r="A45" s="3"/>
       <c r="B45" s="15"/>
       <c r="C45" s="41"/>
@@ -4284,7 +4282,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="120">
       <c r="A46" s="9" t="s">
         <v>16</v>
       </c>
@@ -4316,7 +4314,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="30">
       <c r="A47" s="3" t="s">
         <v>84</v>
       </c>
@@ -4342,7 +4340,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="30">
       <c r="A48" s="3"/>
       <c r="B48" s="15"/>
       <c r="C48" s="41"/>
@@ -4366,7 +4364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="23.25">
       <c r="A49" s="44" t="s">
         <v>91</v>
       </c>
@@ -4380,7 +4378,7 @@
       <c r="I49" s="45"/>
       <c r="J49" s="46"/>
     </row>
-    <row r="50" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="45">
       <c r="A50" s="13" t="s">
         <v>16</v>
       </c>
@@ -4412,7 +4410,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="75">
       <c r="A51" s="13" t="s">
         <v>16</v>
       </c>
@@ -4444,7 +4442,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" s="43" customFormat="1" ht="60">
       <c r="A52" s="13" t="s">
         <v>16</v>
       </c>
@@ -4468,7 +4466,7 @@
       <c r="I52" s="13"/>
       <c r="J52" s="13"/>
     </row>
-    <row r="53" spans="1:10" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" s="43" customFormat="1" ht="45">
       <c r="A53" s="39"/>
       <c r="B53" s="30" t="s">
         <v>456</v>
@@ -4488,7 +4486,7 @@
       <c r="I53" s="39"/>
       <c r="J53" s="39"/>
     </row>
-    <row r="54" spans="1:10" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" s="43" customFormat="1" ht="30">
       <c r="A54" s="39" t="s">
         <v>84</v>
       </c>
@@ -4510,7 +4508,7 @@
       <c r="I54" s="39"/>
       <c r="J54" s="39"/>
     </row>
-    <row r="55" spans="1:10" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" s="43" customFormat="1" ht="60">
       <c r="A55" s="39"/>
       <c r="B55" s="30" t="s">
         <v>438</v>
@@ -4532,7 +4530,7 @@
       <c r="I55" s="39"/>
       <c r="J55" s="39"/>
     </row>
-    <row r="56" spans="1:10" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" s="43" customFormat="1" ht="60">
       <c r="A56" s="39"/>
       <c r="B56" s="30" t="s">
         <v>441</v>
@@ -4554,7 +4552,7 @@
       <c r="I56" s="39"/>
       <c r="J56" s="39"/>
     </row>
-    <row r="57" spans="1:10" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" s="43" customFormat="1" ht="60">
       <c r="A57" s="39"/>
       <c r="B57" s="30" t="s">
         <v>445</v>
@@ -4576,7 +4574,7 @@
       <c r="I57" s="39"/>
       <c r="J57" s="39"/>
     </row>
-    <row r="58" spans="1:10" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" s="43" customFormat="1" ht="30">
       <c r="A58" s="39"/>
       <c r="B58" s="30" t="s">
         <v>452</v>
@@ -4598,7 +4596,7 @@
       <c r="I58" s="39"/>
       <c r="J58" s="39"/>
     </row>
-    <row r="59" spans="1:10" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" s="43" customFormat="1" ht="30">
       <c r="A59" s="39"/>
       <c r="B59" s="30" t="s">
         <v>436</v>
@@ -4620,7 +4618,7 @@
       <c r="I59" s="39"/>
       <c r="J59" s="39"/>
     </row>
-    <row r="60" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="45">
       <c r="A60" s="9" t="s">
         <v>16</v>
       </c>
@@ -4650,7 +4648,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="30">
       <c r="A61" s="3"/>
       <c r="B61" s="15"/>
       <c r="C61" s="41"/>
@@ -4674,7 +4672,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10">
       <c r="A62" s="3"/>
       <c r="B62" s="15"/>
       <c r="C62" s="41"/>
@@ -4698,7 +4696,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="30">
       <c r="A63" s="3"/>
       <c r="B63" s="15"/>
       <c r="C63" s="41"/>
@@ -4722,7 +4720,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="30">
       <c r="A64" s="3"/>
       <c r="B64" s="15"/>
       <c r="C64" s="41"/>
@@ -4746,7 +4744,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10">
       <c r="A65" s="3"/>
       <c r="B65" s="15"/>
       <c r="C65" s="41"/>
@@ -4770,7 +4768,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="30">
       <c r="A66" s="3"/>
       <c r="B66" s="15"/>
       <c r="C66" s="41"/>
@@ -4794,7 +4792,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10">
       <c r="A67" s="3"/>
       <c r="B67" s="15" t="s">
         <v>239</v>
@@ -4818,7 +4816,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="23.25">
       <c r="A68" s="44" t="s">
         <v>164</v>
       </c>
@@ -4832,7 +4830,7 @@
       <c r="I68" s="45"/>
       <c r="J68" s="46"/>
     </row>
-    <row r="69" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="75">
       <c r="A69" s="9" t="s">
         <v>16</v>
       </c>
@@ -4862,7 +4860,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="75">
       <c r="A70" s="9" t="s">
         <v>16</v>
       </c>
@@ -4894,7 +4892,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="60">
       <c r="A71" s="9"/>
       <c r="B71" s="24" t="s">
         <v>727</v>
@@ -4922,7 +4920,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="75">
       <c r="A72" s="9" t="s">
         <v>16</v>
       </c>
@@ -4952,7 +4950,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="30">
       <c r="A73" s="9" t="s">
         <v>16</v>
       </c>
@@ -4982,7 +4980,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="30">
       <c r="A74" s="9" t="s">
         <v>16</v>
       </c>
@@ -5012,7 +5010,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="60">
       <c r="A75" s="9" t="s">
         <v>16</v>
       </c>
@@ -5042,7 +5040,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="120">
       <c r="A76" s="9" t="s">
         <v>16</v>
       </c>
@@ -5072,7 +5070,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="30">
       <c r="A77" s="9" t="s">
         <v>16</v>
       </c>
@@ -5102,7 +5100,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="45">
       <c r="A78" s="9" t="s">
         <v>16</v>
       </c>
@@ -5132,7 +5130,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="105">
       <c r="A79" s="9" t="s">
         <v>16</v>
       </c>
@@ -5162,7 +5160,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10">
       <c r="A80" s="9" t="s">
         <v>16</v>
       </c>
@@ -5190,7 +5188,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10">
       <c r="A81" s="9" t="s">
         <v>16</v>
       </c>
@@ -5216,7 +5214,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="75">
       <c r="A82" s="9" t="s">
         <v>16</v>
       </c>
@@ -5246,7 +5244,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10">
       <c r="A83" s="3" t="s">
         <v>228</v>
       </c>
@@ -5272,7 +5270,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="45">
       <c r="A84" s="10" t="s">
         <v>228</v>
       </c>
@@ -5300,7 +5298,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="75">
       <c r="A85" s="9" t="s">
         <v>16</v>
       </c>
@@ -5330,7 +5328,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="45">
       <c r="A86" s="3" t="s">
         <v>228</v>
       </c>
@@ -5358,7 +5356,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="30">
       <c r="A87" s="10" t="s">
         <v>30</v>
       </c>
@@ -5384,7 +5382,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="60">
       <c r="A88" s="3"/>
       <c r="B88" s="15"/>
       <c r="C88" s="41"/>
@@ -5408,7 +5406,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="45">
       <c r="A89" s="3" t="s">
         <v>234</v>
       </c>
@@ -5434,7 +5432,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="45">
       <c r="A90" s="3" t="s">
         <v>234</v>
       </c>
@@ -5460,7 +5458,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="45">
       <c r="A91" s="3" t="s">
         <v>234</v>
       </c>
@@ -5486,7 +5484,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" ht="23.25" customHeight="1">
       <c r="A92" s="44" t="s">
         <v>750</v>
       </c>
@@ -5500,7 +5498,7 @@
       <c r="I92" s="45"/>
       <c r="J92" s="46"/>
     </row>
-    <row r="93" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" ht="45">
       <c r="A93" s="9" t="s">
         <v>16</v>
       </c>
@@ -5530,7 +5528,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" ht="30">
       <c r="A94" s="9" t="s">
         <v>16</v>
       </c>
@@ -5560,7 +5558,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" ht="30">
       <c r="A95" s="29"/>
       <c r="B95" s="30" t="s">
         <v>742</v>
@@ -5586,7 +5584,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" ht="30">
       <c r="A96" s="29"/>
       <c r="B96" s="30" t="s">
         <v>738</v>
@@ -5612,7 +5610,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" ht="23.25">
       <c r="A97" s="44" t="s">
         <v>749</v>
       </c>
@@ -5626,7 +5624,7 @@
       <c r="I97" s="45"/>
       <c r="J97" s="46"/>
     </row>
-    <row r="98" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="45">
       <c r="A98" s="9" t="s">
         <v>16</v>
       </c>
@@ -5656,7 +5654,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="45">
       <c r="A99" s="9" t="s">
         <v>16</v>
       </c>
@@ -5686,7 +5684,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="45">
       <c r="A100" s="9" t="s">
         <v>16</v>
       </c>
@@ -5716,7 +5714,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="30">
       <c r="A101" s="9" t="s">
         <v>16</v>
       </c>
@@ -5746,7 +5744,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10">
       <c r="A102" s="9" t="s">
         <v>16</v>
       </c>
@@ -5776,7 +5774,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" ht="75">
       <c r="A103" s="10" t="s">
         <v>30</v>
       </c>
@@ -5804,7 +5802,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" ht="23.25" customHeight="1">
       <c r="A104" s="44" t="s">
         <v>122</v>
       </c>
@@ -5818,7 +5816,7 @@
       <c r="I104" s="45"/>
       <c r="J104" s="46"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10">
       <c r="A105" s="9" t="s">
         <v>16</v>
       </c>
@@ -5844,7 +5842,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10">
       <c r="A106" s="9" t="s">
         <v>16</v>
       </c>
@@ -5870,7 +5868,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10">
       <c r="A107" s="9" t="s">
         <v>16</v>
       </c>
@@ -6006,21 +6004,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:D257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="54.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4">
       <c r="B1" t="s">
         <v>459</v>
       </c>
@@ -6031,1282 +6029,1282 @@
         <v>716</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4">
       <c r="B2" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4">
       <c r="B3" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4">
       <c r="B4" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4">
       <c r="B5" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4">
       <c r="B6" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4">
       <c r="B7" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4">
       <c r="B8" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4">
       <c r="B9" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4">
       <c r="B10" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4">
       <c r="B11" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4">
       <c r="B12" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4">
       <c r="B13" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4">
       <c r="B14" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4">
       <c r="B15" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4">
       <c r="B16" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2">
       <c r="B17" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2">
       <c r="B18" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2">
       <c r="B19" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2">
       <c r="B20" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2">
       <c r="B21" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2">
       <c r="B22" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2">
       <c r="B23" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2">
       <c r="B24" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2">
       <c r="B25" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2">
       <c r="B26" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2">
       <c r="B27" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2">
       <c r="B28" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2">
       <c r="B29" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2">
       <c r="B30" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2">
       <c r="B31" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2">
       <c r="B32" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2">
       <c r="B33" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2">
       <c r="B34" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2">
       <c r="B35" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2">
       <c r="B36" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2">
       <c r="B37" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2">
       <c r="B38" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2">
       <c r="B39" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2">
       <c r="B40" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2">
       <c r="B41" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2">
       <c r="B42" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2">
       <c r="B43" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2">
       <c r="B44" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2">
       <c r="B45" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2">
       <c r="B46" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2">
       <c r="B47" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2">
       <c r="B48" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2">
       <c r="B49" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2">
       <c r="B50" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2">
       <c r="B51" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2">
       <c r="B52" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2">
       <c r="B53" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2">
       <c r="B54" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2">
       <c r="B55" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2">
       <c r="B56" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2">
       <c r="B57" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2">
       <c r="B58" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2">
       <c r="B59" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2">
       <c r="B60" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2">
       <c r="B61" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2">
       <c r="B62" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2">
       <c r="B63" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2">
       <c r="B64" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2">
       <c r="B65" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2">
       <c r="B66" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2">
       <c r="B67" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2">
       <c r="B68" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2">
       <c r="B69" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2">
       <c r="B70" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2">
       <c r="B71" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2">
       <c r="B72" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2">
       <c r="B73" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2">
       <c r="B74" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2">
       <c r="B75" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2">
       <c r="B76" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2">
       <c r="B77" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2">
       <c r="B78" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2">
       <c r="B79" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2">
       <c r="B80" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2">
       <c r="B81" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2">
       <c r="B82" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2">
       <c r="B83" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2">
       <c r="B84" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2">
       <c r="B85" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2">
       <c r="B86" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2">
       <c r="B87" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2">
       <c r="B88" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2">
       <c r="B89" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2">
       <c r="B90" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2">
       <c r="B91" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2">
       <c r="B92" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2">
       <c r="B93" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2">
       <c r="B94" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2">
       <c r="B95" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2">
       <c r="B96" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2">
       <c r="B97" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2">
       <c r="B98" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2">
       <c r="B99" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2">
       <c r="B100" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2">
       <c r="B101" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2">
       <c r="B102" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2">
       <c r="B103" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2">
       <c r="B104" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2">
       <c r="B105" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2">
       <c r="B106" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2">
       <c r="B107" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2">
       <c r="B108" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2">
       <c r="B109" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2">
       <c r="B110" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2">
       <c r="B111" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2">
       <c r="B112" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2">
       <c r="B113" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2">
       <c r="B114" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2">
       <c r="B115" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2">
       <c r="B116" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2">
       <c r="B117" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2">
       <c r="B118" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2">
       <c r="B119" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2">
       <c r="B120" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2">
       <c r="B121" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2">
       <c r="B122" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2">
       <c r="B123" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2">
       <c r="B124" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2">
       <c r="B125" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2">
       <c r="B126" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2">
       <c r="B127" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2">
       <c r="B128" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2">
       <c r="B129" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2">
       <c r="B130" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2">
       <c r="B131" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2">
       <c r="B132" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2">
       <c r="B133" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2">
       <c r="B134" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2">
       <c r="B135" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2">
       <c r="B136" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2">
       <c r="B137" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2">
       <c r="B138" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2">
       <c r="B139" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:2">
       <c r="B140" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:2">
       <c r="B141" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:2">
       <c r="B142" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2">
       <c r="B143" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:2">
       <c r="B144" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:2">
       <c r="B145" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2">
       <c r="B146" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2">
       <c r="B147" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:2">
       <c r="B148" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:2">
       <c r="B149" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:2">
       <c r="B150" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:2">
       <c r="B151" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:2">
       <c r="B152" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:2">
       <c r="B153" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:2">
       <c r="B154" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:2">
       <c r="B155" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:2">
       <c r="B156" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:2">
       <c r="B157" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:2">
       <c r="B158" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:2">
       <c r="B159" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:2">
       <c r="B160" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2">
       <c r="B161" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2">
       <c r="B162" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2">
       <c r="B163" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2">
       <c r="B164" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2">
       <c r="B165" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2">
       <c r="B166" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2">
       <c r="B167" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2">
       <c r="B168" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:2">
       <c r="B169" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:2">
       <c r="B170" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:2">
       <c r="B171" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:2">
       <c r="B172" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:2">
       <c r="B173" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:2">
       <c r="B174" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:2">
       <c r="B175" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2">
       <c r="B176" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2">
       <c r="B177" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2">
       <c r="B178" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2">
       <c r="B179" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2">
       <c r="B180" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:2">
       <c r="B181" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2">
       <c r="B182" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:2">
       <c r="B183" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:2">
       <c r="B184" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:2">
       <c r="B185" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:2">
       <c r="B186" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:2">
       <c r="B187" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:2">
       <c r="B188" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:2">
       <c r="B189" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:2">
       <c r="B190" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:2">
       <c r="B191" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:2">
       <c r="B192" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:2">
       <c r="B193" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:2">
       <c r="B194" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:2">
       <c r="B195" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:2">
       <c r="B196" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:2">
       <c r="B197" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:2">
       <c r="B198" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:2">
       <c r="B199" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:2">
       <c r="B200" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:2">
       <c r="B201" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:2">
       <c r="B202" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:2">
       <c r="B203" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:2">
       <c r="B204" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:2">
       <c r="B205" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:2">
       <c r="B206" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:2">
       <c r="B207" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:2">
       <c r="B208" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:2">
       <c r="B209" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:2">
       <c r="B210" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:2">
       <c r="B211" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:2">
       <c r="B212" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:2">
       <c r="B213" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:2">
       <c r="B214" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:2">
       <c r="B215" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:2">
       <c r="B216" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:2">
       <c r="B217" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:2">
       <c r="B218" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:2">
       <c r="B219" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:2">
       <c r="B220" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:2">
       <c r="B221" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:2">
       <c r="B222" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:2">
       <c r="B223" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:2">
       <c r="B224" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:2">
       <c r="B225" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:2">
       <c r="B226" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:2">
       <c r="B227" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:2">
       <c r="B228" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:2">
       <c r="B229" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:2">
       <c r="B230" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:2">
       <c r="B231" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:2">
       <c r="B232" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:2">
       <c r="B233" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:2">
       <c r="B234" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:2">
       <c r="B235" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:2">
       <c r="B236" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:2">
       <c r="B237" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:2">
       <c r="B238" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:2">
       <c r="B239" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:2">
       <c r="B240" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:2">
       <c r="B241" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:2">
       <c r="B242" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:2">
       <c r="B243" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:2">
       <c r="B244" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:2">
       <c r="B245" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:2">
       <c r="B246" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:2">
       <c r="B247" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:2">
       <c r="B248" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:2">
       <c r="B249" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:2">
       <c r="B250" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:2">
       <c r="B251" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:2">
       <c r="B252" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:2">
       <c r="B253" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:2">
       <c r="B254" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:2">
       <c r="B255" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:2">
       <c r="B256" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:2">
       <c r="B257" t="s">
         <v>715</v>
       </c>
